--- a/story_xlsx_files_postpilotiiedits/12.xlsx
+++ b/story_xlsx_files_postpilotiiedits/12.xlsx
@@ -37,7 +37,7 @@
     </r>
   </si>
   <si>
-    <t>Upon arriving at their terminal, they only had 45 minutes until their international flight would depart from Jamaica for the US.</t>
+    <t>Upon arriving at their terminal, they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
   </si>
   <si>
     <t xml:space="preserve">It had been a tough vacation, which was planned well before Jessie began to think of breaking up with Calvin 6 weeks ago.  </t>
@@ -88,7 +88,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">“Calvin, I really don’t think I can do this anymore because I don’t think our personalities are compatible. </t>
+      <t xml:space="preserve">“Calvin, I want to break up because I don’t think our personalities are compatible. </t>
     </r>
   </si>
   <si>
@@ -172,7 +172,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>hey scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the plane door behind them.</t>
+      <t>hey scanned their tickets, and the annoyed flight attendant shooed them onto the plane and then closed the plane door behind them.</t>
     </r>
   </si>
   <si>
